--- a/final_report/Trace_Report_PALM OIL_initial.xlsx
+++ b/final_report/Trace_Report_PALM OIL_initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3CBD828-5650-4755-B65C-00B5200034AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78946C30-602F-47FF-A4BD-65FF480340A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="-5985" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>Initial</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>MRONP0</t>
+    <t>MNPDV2</t>
   </si>
   <si>
     <t>JOHNSTOWN</t>
@@ -86,31 +86,34 @@
     <t>CO</t>
   </si>
   <si>
+    <t>TILX</t>
+  </si>
+  <si>
+    <t>CRESTON</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>MWCNP2</t>
+  </si>
+  <si>
     <t>UTLX</t>
   </si>
   <si>
-    <t>GREEN RIVER</t>
-  </si>
-  <si>
-    <t>MRVGR3</t>
-  </si>
-  <si>
-    <t>TILX</t>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
   </si>
   <si>
     <t>Placed Actual</t>
   </si>
   <si>
-    <t>WESTWEGO</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Junction Received</t>
-  </si>
-  <si>
-    <t>NOGC</t>
+    <t>KELIM</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -122,37 +125,61 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 10/03/2023 10:52:32 EDT, by WPJTOWN1.The search returned: 9 events.</t>
+    <t>Description unknown, completed 10/24/2023 07:54:28 EDT, by WPJTOWN1.The search returned: 17 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>TCIX250760</t>
+  </si>
+  <si>
+    <t>TCIX250766</t>
+  </si>
+  <si>
+    <t>TILX252319</t>
+  </si>
+  <si>
+    <t>UTLX645561</t>
+  </si>
+  <si>
+    <t>TILX252283</t>
+  </si>
+  <si>
+    <t>TCIX256500</t>
+  </si>
+  <si>
+    <t>TCIX256424</t>
+  </si>
+  <si>
+    <t>TCIX250780</t>
+  </si>
+  <si>
+    <t>UTLX645560</t>
+  </si>
+  <si>
+    <t>UTLX645570</t>
+  </si>
+  <si>
     <t>TCIX258654</t>
   </si>
   <si>
-    <t>UTLX645570</t>
-  </si>
-  <si>
-    <t>UTLX645560</t>
-  </si>
-  <si>
-    <t>TILX253449</t>
-  </si>
-  <si>
-    <t>TCIX256422</t>
-  </si>
-  <si>
-    <t>TCIX256189</t>
-  </si>
-  <si>
-    <t>TCIX256202</t>
-  </si>
-  <si>
-    <t>TCIX256439</t>
+    <t>TCIX256434</t>
+  </si>
+  <si>
+    <t>TCIX256419</t>
+  </si>
+  <si>
+    <t>UTLX669035</t>
   </si>
   <si>
     <t>UTLX669036</t>
+  </si>
+  <si>
+    <t>TILX253454</t>
+  </si>
+  <si>
+    <t>UTLX669029</t>
   </si>
 </sst>
 </file>
@@ -993,17 +1020,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O11"/>
+      <selection activeCell="O3" sqref="O3:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1041,16 +1068,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1058,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>258654</v>
+        <v>250760</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1070,10 +1097,10 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>801</v>
+        <v>2346</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1088,24 +1115,24 @@
         <v>16</v>
       </c>
       <c r="L3">
-        <v>173850</v>
+        <v>170000</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>173850</v>
+        <v>170000</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>645570</v>
+        <v>250766</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1117,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>801</v>
+        <v>2346</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1135,16 +1162,16 @@
         <v>16</v>
       </c>
       <c r="L4">
-        <v>179550</v>
+        <v>170000</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>179550</v>
+        <v>170000</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1152,7 +1179,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>645560</v>
+        <v>252319</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1164,16 +1191,16 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>1823</v>
+        <v>241</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -1182,43 +1209,46 @@
         <v>16</v>
       </c>
       <c r="L5">
-        <v>179750</v>
+        <v>180150</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>179750</v>
+        <v>180150</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>645561</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>241</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>253449</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>1424</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
@@ -1226,42 +1256,45 @@
         <v>16</v>
       </c>
       <c r="L6">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>256422</v>
+        <v>252283</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>1525</v>
+        <v>1506</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1270,16 +1303,16 @@
         <v>16</v>
       </c>
       <c r="L7">
-        <v>170000</v>
+        <v>178200</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>170000</v>
+        <v>178200</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1287,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>256189</v>
+        <v>256500</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1296,17 +1329,17 @@
         <v>16</v>
       </c>
       <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>1330</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="G8">
-        <v>1525</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
       <c r="J8" t="s">
         <v>15</v>
       </c>
@@ -1314,16 +1347,16 @@
         <v>16</v>
       </c>
       <c r="L8">
-        <v>170000</v>
+        <v>179700</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>170000</v>
+        <v>179700</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1331,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>256202</v>
+        <v>256424</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1340,17 +1373,17 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>1626</v>
+      </c>
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="G9">
-        <v>1525</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
@@ -1358,16 +1391,16 @@
         <v>16</v>
       </c>
       <c r="L9">
-        <v>170000</v>
+        <v>179650</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>170000</v>
+        <v>179650</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1375,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>256439</v>
+        <v>250780</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1384,17 +1417,17 @@
         <v>16</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>1626</v>
+      </c>
+      <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="G10">
-        <v>1525</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
@@ -1402,44 +1435,41 @@
         <v>16</v>
       </c>
       <c r="L10">
-        <v>170000</v>
+        <v>179600</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>170000</v>
+        <v>179600</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>645560</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>669036</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
       <c r="G11">
-        <v>450</v>
+        <v>1415</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
         <v>25</v>
       </c>
       <c r="J11" t="s">
@@ -1449,16 +1479,368 @@
         <v>16</v>
       </c>
       <c r="L11">
-        <v>170000</v>
+        <v>179750</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
+        <v>179750</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>645570</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>1415</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>179550</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>179550</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>258654</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>1415</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>173850</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>173850</v>
+      </c>
+      <c r="O13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>256434</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>1415</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>179950</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>179950</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>256419</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>1602</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>180100</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>180100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>669035</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>1457</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>179850</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>179850</v>
+      </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>669036</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>1457</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
         <v>170000</v>
       </c>
-      <c r="O11" t="s">
-        <v>39</v>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>170000</v>
+      </c>
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>253454</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>2244</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>180000</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>180000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>669029</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>2244</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>179850</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>179850</v>
+      </c>
+      <c r="O19" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
